--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01300ABC-7026-47C5-97FB-063CDAA24DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7DE39-1EA6-4460-8BA9-D0568C64A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +727,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrkel\Documents\git\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaara\Documents\github\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7DE39-1EA6-4460-8BA9-D0568C64A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7084F-9B95-423C-9B4C-EC2D74CDC79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -419,21 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="77.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45847</v>
       </c>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45851</v>
       </c>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45852</v>
       </c>
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45854</v>
       </c>
@@ -517,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45856</v>
       </c>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45860</v>
       </c>
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45863</v>
       </c>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45863</v>
       </c>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45870</v>
       </c>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45870</v>
       </c>
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45870</v>
       </c>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45870</v>
       </c>
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45873</v>
       </c>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45873</v>
       </c>
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45876</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45876</v>
       </c>
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45880</v>
       </c>
@@ -699,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45881</v>
       </c>
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45881</v>
       </c>
@@ -727,7 +727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45883</v>
       </c>
@@ -738,6 +738,20 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
         <v>9</v>
       </c>
     </row>

--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaara\Documents\github\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7084F-9B95-423C-9B4C-EC2D74CDC79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A3CCD-33A3-49DE-BE75-198C535AF569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -755,6 +755,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaara\Documents\github\2025_g34p\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monik\Documents\git\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A3CCD-33A3-49DE-BE75-198C535AF569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13C51D-B916-469D-84C5-42F4B9C29E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,8 +140,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,20 +424,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="77.73046875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="77.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -447,8 +450,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>45847</v>
       </c>
       <c r="B2" t="s">
@@ -461,8 +464,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>45848</v>
       </c>
       <c r="B3" t="s">
@@ -475,8 +478,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>45851</v>
       </c>
       <c r="B4" t="s">
@@ -489,8 +492,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>45852</v>
       </c>
       <c r="B5" t="s">
@@ -503,8 +506,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>45854</v>
       </c>
       <c r="B6" t="s">
@@ -517,8 +520,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>45856</v>
       </c>
       <c r="B7" t="s">
@@ -531,8 +534,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45860</v>
       </c>
       <c r="B8" t="s">
@@ -545,8 +548,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>45863</v>
       </c>
       <c r="B9" t="s">
@@ -559,8 +562,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>45863</v>
       </c>
       <c r="B10" t="s">
@@ -573,8 +576,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>45870</v>
       </c>
       <c r="B11" t="s">
@@ -587,8 +590,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>45870</v>
       </c>
       <c r="B12" t="s">
@@ -601,8 +604,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>45870</v>
       </c>
       <c r="B13" t="s">
@@ -615,8 +618,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>45870</v>
       </c>
       <c r="B14" t="s">
@@ -629,8 +632,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>45873</v>
       </c>
       <c r="B15" t="s">
@@ -643,8 +646,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>45873</v>
       </c>
       <c r="B16" t="s">
@@ -657,8 +660,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>45876</v>
       </c>
       <c r="B17" t="s">
@@ -671,8 +674,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>45876</v>
       </c>
       <c r="B18" t="s">
@@ -685,8 +688,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>45880</v>
       </c>
       <c r="B19" t="s">
@@ -699,8 +702,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>45881</v>
       </c>
       <c r="B20" t="s">
@@ -713,8 +716,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>45881</v>
       </c>
       <c r="B21" t="s">
@@ -727,8 +730,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>45883</v>
       </c>
       <c r="B22" t="s">
@@ -741,8 +744,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>45884</v>
       </c>
       <c r="B23" t="s">
@@ -755,8 +758,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>45887</v>
       </c>
       <c r="B24" t="s">

--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaara\Documents\github\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5A3CCD-33A3-49DE-BE75-198C535AF569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18206A-97A6-47F0-BE16-98A7C49D644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>shuffled plants after fertilizing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soaked the pots until it dripped </t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -769,6 +772,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaara\Documents\github\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C18206A-97A6-47F0-BE16-98A7C49D644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895EE16-A055-4DCC-B007-759C15D16174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,6 +783,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/water_fertilizer_shuffle.xlsx
+++ b/logs/water_fertilizer_shuffle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaara\Documents\github\2025_g34p\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B895EE16-A055-4DCC-B007-759C15D16174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F295F8-23A8-4DF3-850A-015748651312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -797,6 +797,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
